--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Supriya\Assessment\SauceDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5884F497-C614-4D59-98F9-0F5C85F6A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF197AD-EDDA-4D2E-BD5E-2C15B48C4DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>UserName</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Product Name</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>performance_glitch_user</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" activeCellId="1" sqref="B2 B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,6 +419,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -422,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121DE4FA-DAB3-4429-B704-4E628853CE40}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
